--- a/Datos/Datos VertebradosIbericos/Descripciones Mamiferos.xlsx
+++ b/Datos/Datos VertebradosIbericos/Descripciones Mamiferos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackaton_Biodiversidad_IA_2025\Hackathon-PNAV\Datos\Datos VertebradosIbericos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D633E-2051-460D-AC39-934240D33D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF5684-81EA-482C-ACEE-F97EE4A520B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="0" windowWidth="9150" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="185">
   <si>
     <t>Commun Name</t>
   </si>
@@ -71,21 +71,6 @@
     <t>Topo europeo</t>
   </si>
   <si>
-    <r>
-      <t>Talpa europaea</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFC0C0C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Especie insectívora de hábitos hipogeos, con extremidades anteriores fuertes y anchas que le permiten excavar. Su pelaje es de color negro pardusco, lustroso y denso. Carece de pabellón auricular y sus ojos son visibles. Presenta un tamaño superior al del topo ibérico (Talpa occidentalis). La longitud de cabeza y cuerpo varía en machos adultos entre 127,5 y 203 mm y entre 116 y 182 mm en hembras adultas. Su fórmula dentaria es 3.1.4.3/3.1.4.3 y los molares presentan el mesostilo sencillo, formado por una sola punta.
 La masa corporal de adultos varía entre 45 y 120 g en machos y 48 y 89 g en hembras.</t>
   </si>
@@ -101,13 +86,1040 @@
   </si>
   <si>
     <t>VertebradosIbericos</t>
+  </si>
+  <si>
+    <t>Erizo moruno</t>
+  </si>
+  <si>
+    <t>Atelerix algirus</t>
+  </si>
+  <si>
+    <t>El erizo moruno es más pequeño (hasta 24,5 cm) que el erizo europeo (hasta 29 cm). Además, es de tonalidad más clara y tiene las orejas y las extremidades de mayor tamaño, con uñas prominentes y callosidades. Las púas son más cortas, con una mancha característica en la parte central. Los excrementos son muy oscuros, cilíndricos y alargados, generalmente de mayor tamaño que los del erizo europeo. Su fórmula dentaria es 3.1.3.3/2.1.2.3 y, su cariotipo, (2n) = 48.
+Masa corporal, hasta 657 g.</t>
+  </si>
+  <si>
+    <t>Murciélago ratonero pardo</t>
+  </si>
+  <si>
+    <t>Myotis emarginatus</t>
+  </si>
+  <si>
+    <t>Murciélago de tamaño mediano-pequeño, con orejas de longitud media que extendidas llegan justo hasta el hocico. Presentan en la oreja una emarginación más marcada que en otras especies, aunque no es un carácter conspicuo en cualquier caso. Trago puntiagudo que apenas alcanza dicha emarginación. Pelaje de aspecto lanoso rubio rojizo dorsalmente y amarillento ventralmente. El patagio alar se inserta en la base del dedo más externo del pie. El espolón ocupa la mitad del borde posterior del uropatagio, que generalmente presenta algunos pelos pequeños. La tibia está parcialmente cubierta de pelos rojizos en su parte dorsal. Interior de la oreja con numerosas protuberancias granulares.</t>
+  </si>
+  <si>
+    <t>Murciélago ratonero ibérico</t>
+  </si>
+  <si>
+    <t>Murciélago de tamaño pequeño con orejas que extendidas sobrepasan el hocico. Presenta en la oreja una emarginación aunque menos marcada que en M. emarginatus. Trago puntiagudo típico del género. El espolón ocupa la mitad del borde del uropatagio y tiene forma de "S"; la otra mitad tiene una conspicua franja de pelos cortos y rígidos. Las tibias carecen de pilosidad aparente. Marcado contraste entre el color claro del vientre y el oscuro de la espalda. Destaca la falta de pelo alrededor de los ojos. Pelo bicolor, el dorsal con base oscura y puntas pardo-grisáceas y el ventral con base también oscura y puntas blanquecinas. Los jóvenes son mucho más oscuros que los adultos.
+Myotis escalerai presenta una banda de cerdas en la cara ventral del borde del uropatagio, orientadas hacia el cuerpo, además de la banda de cerdas justo en el borde orientadas hacia fuera, características de todo el complejo nattereri. El ángulo de inserción del plagiopatagio (membrana alar entre los dedos de la mano y el tobillo) está más marcado en Myotis cf. nattereri, siendo más redondeado en Myotis escalerai.</t>
+  </si>
+  <si>
+    <t>Myotis escalerai</t>
+  </si>
+  <si>
+    <t>Nóctulo mediano</t>
+  </si>
+  <si>
+    <t>Nyctalus noctula (Schreber, 1774)</t>
+  </si>
+  <si>
+    <t>Murciélago de tamaño grande. La cabeza es ancha y aplanada. Las orejas son anchas y relativamente cortas, aproximadamente redondeadas; el trago, como en las demás especies de su género, es arriñonado. El hocico es corto y amplio. Los ojos son muy patentes, redondos y negros. Las alas son largas y estrechas, frecuentemente con pelo en la cara ventral, junto al brazo y al antebrazo. Las membranas alares se insertan en los tobillos. El calcáneo alcanza la mitad de la longitud del borde del uropatagio. Posee un lóbulo postcalcáneo bien desarrollado.
+El pelaje muy denso y graso, de color pardo-dorado y brillante (en ocasiones rojizo), tanto en el dorso como en la zona ventral. Los pelos son de un solo color. Alas, orejas y hocico de color castaño oscuro o negro.</t>
+  </si>
+  <si>
+    <t>Murciélago hortelano meridional</t>
+  </si>
+  <si>
+    <t>Murciélago de talla mediana-grande. Pelo de color amarillento dorado en la parte dorsal y algo más claro en la ventral. Las orejas son triangulares y cortas, trago arriñonado. La coloración de las partes desnudas (cara y alas) es muy oscura. Las membranas alares se insertan en la base de los pies. El uropatagio tiene un lóbulo post-calcáneo muy patente.
+Las alas son ligeramente más largas que anchas. Las hembras son ligeramente mayores que los machos. Es ligeramente más pequeña que E. serotinus.</t>
+  </si>
+  <si>
+    <t>Murciélago de bosque </t>
+  </si>
+  <si>
+    <t>Barbastella barbastellus</t>
+  </si>
+  <si>
+    <t>B. barbastellus es un murciélago de tamaño medio. La cabeza es ancha y aplanada, con hocico chato y con las narinas abiertas para arriba. Tiene una boca muy pequeña con dientes poco robustos. Las orejas son grandes de forma trapezoidal y unidas en su base. El trago es largo y de forma triangular; a partir de la mitad de su altura se estrecha abruptamente y termina en punta redondeada. El pelaje es largo y sedoso, de color pardo-negruzco a negro, con la zona ventral más clara. Las partes sin pelos son de color negro o pardo-negruzco.
+En la Península Ibérica, la masa corporal media de los machos es de 8,01 g (5,3-11,0 g) y de las hembras de 9,41 g (7,2-14,2 g).</t>
+  </si>
+  <si>
+    <t>Murciélago de cueva</t>
+  </si>
+  <si>
+    <t>Miniopterus schreibersii</t>
+  </si>
+  <si>
+    <t>Murciélago de tamaño medio, con hocico achatado y frente alta y protuberante. Orejas cortas y triangulares. Las alas son estrechas y largas. El pelaje tiene coloración grisácea, con la zona ventral mucho más clara. Las hembras son ligeramente más grandes y tiene una marcada estacionalidad en el peso de los individuos.
+Las llamadas de ecolocación son de tipo FM-QCF, con una frecuencia de máxima energía entre 54-56 kHz. Las llamadas son muy similares a la que produce la especie Pipistrellus pygmaeus y no se pueden identificar de forma fiable.
+Masa corporal: 9,8-15,3 g en machos y 9,8-17,1 g en hembras.</t>
+  </si>
+  <si>
+    <t>Murciélago rabudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tadarida teniotis </t>
+  </si>
+  <si>
+    <t>Murciélago de gran tamaño, con alas largas y estrechas, aptas para el vuelo rápido y la caza en espacios abiertos. La cabeza es muy característica con orejas rígidas proyectadas hacia delante, ojos grandes y hocico largo. La cola sobresale de la membrana patagial, lo que da nombre a la especie. 
+Masa corporal, 22-54 g.</t>
+  </si>
+  <si>
+    <t>Topillo campesino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microtus arvalis </t>
+  </si>
+  <si>
+    <t>Cuerpo achatado y macizo, con escaso cuello y hocico corto y ancho. Sus orejas son pequeñas. Color casi uniforme, sólo un poco más oscura en la parte dorsal. El pelaje de los adultos es pardo-arenoso en el dorso y blanco grisáceo en el vientre, mientras que los jóvenes presentan una coloración general grisácea. Es muy similar al topillo agreste, Microtus agrestis, pero ligeramente más pequeño que este, con pelaje más claro, más corto y más liso. El borde exterior de la oreja está cubierto por el pelo en el caso del topillo agreste y es claramente visible en el topillo campesino La longitud de cabeza y cuerpo varía entre 94 y 137 mm y la la longitud media de la cola varía entre 34 y 35 mm.
+La dentición difiere de la del topillo agreste en que éste presenta un lóbulo adicional en la parte posterior interna de M2 que no se aprecia en M. arvalis.
+Masa corporal máxima, 77 g en machos y 70 g en hembras.</t>
+  </si>
+  <si>
+    <t>Topillo de Cabrera</t>
+  </si>
+  <si>
+    <t>Microtus cabrerae</t>
+  </si>
+  <si>
+    <t>De forma similar a otras especies de Microtus de la Península Ibérica, la longitud de la cola del topillo de Cabrera es aproximadamente un tercio de la longitud del cuerpo. Sin embargo, además de alcanzar una de las masas corporales más grandes entre los miembros de su género, el topillo de Cabrera se distingue también por una mayor longitud del pie (en general &gt;20 mm para el topillo de Cabrera y &lt;20 mm para todas las demás especies ibéricas de Microtus). Como Microtus arvalis asturianus, el topillo de Cabrera tiene 6 almohadillas plantares, en comparación con el resto de especies Ibéricas de Microtus que tienen 5. Su pelo es largo y grueso, de color pardo-oliváceo dorsalmente y amarillento ventralmente. Las orejas son pequeñas y casi completamente cubiertas de pelo, y la cola es corta y ligeramente bicolor (blanco-pardusca dorsalmente y blanca ventralmente). El cráneo tiene forma convexa, presentando huesos nasales más largos que el diastema y anchos posteriormente. No hay diferencias físicas evidentes entre machos y hembras, excepto con respecto a las dimensiones de la pelvis en individuos adultos. La fórmula dental es 2(I 1/1, C 0/0, P 0/0, M 3/3). Poseen dientes sin raíces por sus molares marcadamente asimétricos y en forma de triángulo, en particular el m1.
+Masa corporal, 30-78 g.</t>
+  </si>
+  <si>
+    <t>Topillo nival</t>
+  </si>
+  <si>
+    <t>La longitud de cabeza y cuerpo varía entre 84 y 140 mm y la longitud de la cola oscila entre 39-75 mm. Pelaje gris con tonos pardos en el dorso y vientre blanco o gris claro, cola y patas blancas. Posee largas vibrisas en el hocico.
+El cráneo es grande, piriforme, con la caja cerebral muy deprimida y con una ligera depresión a nivel de los huesos frontales. Su fórmula dentaria es: 1.0.0.3/1.0.0.3; presentando dientes de crecimiento continuo y raíz abierta. Los incisivos son bastante proclives y el primer molar presenta un ángulo externo muy ancho y redondeado en el cual se pueden observar las tres cavidades, dándole una forma de punta de flecha, que es la forma típica de la misma especie. Presenta cuatro pares de mamas, dos pectorales y dos inguinales.
+Masa corporal, 30-70 g.</t>
+  </si>
+  <si>
+    <t>Rata de agua</t>
+  </si>
+  <si>
+    <t>Roedor de tamaño medio, hasta 233 mm de longitud cabeza-cuerpo y de constitución robusta. La longitud de la cola (hasta 147 mm) supera siempre la mitad de la longitud cabeza-cuerpo. No existe dimorfismo sexual significativo por lo que respecta a las dimensiones corporales y craneales. El pelaje es denso, cubre parcialmente las orejas y es muy corto y escaso en los pies y cola. En los adultos, el dorso varía desde el pardo amarillento hasta el pardo oscuro mezclado abundantemente con negro. El vientre es gris ceniza con tonos amarillentos de intensidad variable. La cola es bicolor, parda oscura por encima y más clara por debajo. Los ejemplares de ciertas zonas del norte ibérico presentan una coloración general más oscura.
+El cráneo de los adultos es robusto, anguloso y muy plano dorsalmente. Los incisivos superiores son ortodontos, el bucle anterior del M1 está ligeramente aplanado en su parte anterior y forma un ángulo agudo en la zona lingual. Fórmula dentaria: 1.0.0.3/1.0.0.3 = 16. Los incisivos superiores son ortodontos y los molares hipsodontos y sin raíces.
+Masa corporal media, 226 g.</t>
+  </si>
+  <si>
+    <t>Ratón espiguero</t>
+  </si>
+  <si>
+    <t>Micromys minutus</t>
+  </si>
+  <si>
+    <t>Es el más pequeño roedor de Europa. Parece un pequeño ratón de campo por su coloración dorsal amarillenta y su vientre blanco, pero su hocico romo, sus orejan cortas y su cola prensil permiten diferenciarlo con cierta facilidad. Lo más frecuente es encontrar sus restos óseos en egagrópilas de lechuza, pudiéndose distinguir su cráneo por la existencia de cinco raíces en el primer molar superior y siete alvéolos en la serie molar inferior, además de un rostro corto y una mandíbula relativamente corta y alta.</t>
+  </si>
+  <si>
+    <t>Ratón de campo</t>
+  </si>
+  <si>
+    <t>Apodemus sylvaticus</t>
+  </si>
+  <si>
+    <t>Micromamífero de tamaño mediano que se caracteriza por presentar ojos oscuros y orejas redondeadas que destacan notablemente en proporción al tamaño de la cabeza. Posee las extremidades posteriores considerablemente más largas que las delanteras, y una cola de longitud igual o superior a la longitud cabeza-cuerpo, delgada, con pelos cortos y finos, y cubierta con una funda tegumentaria. La coloración del pelaje en los individuos juveniles es de color grisáceo en la zona dorsal y blanquecino en la zona ventral. Tras la primera muda, el pelaje dorsal pasa de tonos parduscos en los individuos subadultos a rojizo en los adultos, y de blanquecino a amarillento en la zona ventral.
+A. sylvaticus tiene una talla menor que la de A. flavicollis. Collar amarillo reducido o ausente en A. sylvaticus y bien desarrollado en A. flavicollis. A. flavicollis tiene el dorso más marrón y el vientre más blanco que A. sylvaticus.
+El cráneo tiene una forma alargada, presentando un acusado estrechamiento en la región nasal, un diastema como característica evidente, y con forma algo cóncava en la zona lateral en la que se pueden observar los arcos zigomáticos apenas separados del cráneo Su fórmula dentaria es: 1.0.0.3/1.0.0.3, con el tubérculo 9 del M2 bien desarrollado y cuatro alvéolos en el M1. La longitud cabeza-cuerpo varía entre 77,0-111,0 mm; cola, 78,0-114,0 mm; pie posterior, 20,5-24,5 mm; oreja, 14,6-19,0 mm.</t>
+  </si>
+  <si>
+    <t>Ratón leonado</t>
+  </si>
+  <si>
+    <t>Apodemus flavicollis</t>
+  </si>
+  <si>
+    <t>De aspecto muy similar al ratón de campo, pero algo más grande que este. El pelaje es de color pardo-rojizo en la zona dorsal y blanco puro en la ventral. Presenta una mancha ocre pectoral que a veces llega a rodear el cuello formando un collar. Los individuos juveniles y subadultos son más oscuros y grisáceos en su dorso. Pueden distinguirse del género Mus a través de la longitud del pie, que es siempre superior a 20 mm.</t>
+  </si>
+  <si>
+    <t>Ratón casero</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>Es un roedor de tamaño pequeño cuyas medidas corporales son: longitud cabeza-cuerpo, 73,0-101,5 mm; cola, 68,0-98,5 mm; pie posterior, 15,5-17,5 mm oreja, 11,5-15,00 mm: El hocico es ligeramente alargado y puntiagudo, los ojos negros y pequeños y las orejas redondeadas. La cola está recubierta con anillos escamosos entre los que se disponen pelos cortos y finos de forma dispersa. Ésta tiene una longitud ligeramente más larga o similar a la de la cabeza-cuerpo. El pelaje es de color variable, pudiéndose encontrar desde animales con dorso pardo-grisáceo y región ventral de crema a blanco, con una línea de demarcación entre ambas regiones, hasta animales de dorso gris parduzco oscuro y vientre ligeramente más claro, sin línea neta de demarcación.</t>
+  </si>
+  <si>
+    <t>Ratón moruno</t>
+  </si>
+  <si>
+    <t>Es un roedor de pequeño tamaño que tiene un hocico redondeado y presenta orejas y ojos pequeños. Los adultos tienen una coloración dorsal gris castaño, con una franja algo más oscura desde la cabeza al comienzo de la cola. El vientre es más claro, blanco grisáceo, y existe una línea clara de separación lateral entre el vientre y el dorso del animal.
+Se parece al ratón casero (Mus musculus), pero se diferencia de éste porque el hocico del ratón casero es alargado y puntiagudo y por la longitud relativa de la cola, que en M. spretus es siempre bastante menor que la longitud cabeza-cuerpo.</t>
+  </si>
+  <si>
+    <t>Lirón careto</t>
+  </si>
+  <si>
+    <t>Eliomys quercinus</t>
+  </si>
+  <si>
+    <t>Los lirones caretos deben su nombre a la franja de pelo negro que le cubre los ojos y parte de la cara a modo de careta o antifaz. El dorso es pardo-rojizo y el vientre blanco. La cola, que está completamente recubierta de pelo, presenta en su extremo un llamativo pincel de pelo largo blanco y negro. Las orejas son grandes y los ojos negros, redondos, grandes y saltones. No presentan dimorfismo sexual.
+El tamaño es muy variable en la península Ibérica. Los lirones de mayor tamaño se encuentran en el sur-oeste, donde sobrepasan los 120 g de masa corporal y los más pequeños en el norte, donde con alcanzan los 60 g. Los lirones más grandes se encuentran en la isla balear de Formentera donde llegan a tener una masa corporal de 180 g.</t>
+  </si>
+  <si>
+    <t>Lirón gris</t>
+  </si>
+  <si>
+    <t>Glis glis</t>
+  </si>
+  <si>
+    <t>Roedor robusto, de orejas grandes y cola voluminosa. Longitud de cabeza y cuerpo hasta 190 mm y longitud de la cola hasta 150 mm. Su pelaje es de color gris plateado, excepto en el vientre que es de color blanco.
+Masa corporal, hasta 280 g</t>
+  </si>
+  <si>
+    <t>Ardilla roja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciurus vulgaris </t>
+  </si>
+  <si>
+    <t>Roedor de tamaño medio y cola larga y tupida, de aspecto esponjoso, con longitud total hasta 445 mm. Coloración general parda rojiza y partes inferiores blancas. Plantígrada, con cuatro dedos en las manos y cinco en los pies, terminados en largas uñas curvadas. Extremidades posteriores mucho más largas que las anteriores. Orejas provistas de un penacho de pelo muy llamativo en invierno.</t>
+  </si>
+  <si>
+    <t>Marmota alpina</t>
+  </si>
+  <si>
+    <t>Marmota marmota</t>
+  </si>
+  <si>
+    <t>Roedor de gran talla. Cabeza pequeña y orejas cortas. Dorso de color pardo oscuro y vientre amarillento. Extremidad de la cola negruzca.
+Masa corporal, 3,4 - 5,7 kg.</t>
+  </si>
+  <si>
+    <t>Liebre ibérica</t>
+  </si>
+  <si>
+    <t>Lepus granatensis</t>
+  </si>
+  <si>
+    <t>Talla menor que L. europaeus y L. castroviejoi. Extremidades con una nítida mancha blanca en su parte superior. Sin banda facial. Blanco del vientre muy extendido, llegando hasta por delante de las patas delanteras. Contraste nítido entre el pelaje del dorso y del vientre. Pelaje de color canela rojizo desde la parte inguinal y región pélvica hasta el metatarso. El margen del área negra de la cola está claramente delimitado, debido a que los pelos blancos son más largos que los negros; la zona negra termina en punta.
+Huella del pie anterior generalmente menor a 5 cm y del pie anterior menor de 6 cm, con las uñas muy marcadas. Las huellas aparecen en grupos de 4 en 4.
+Excrementos redondeados, más claros cuanto más tiempo llevan expuestos. Roeduras en árboles de tipo vertical, limpias y sin flecos.
+Masa corporal, 1,32-2,52 kg en machos y 1,58-3,28 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Liebre de piornal</t>
+  </si>
+  <si>
+    <t>Este endemismo ibérico de restringida área de distribución, es de tamaño intermedio en comparación con las otras dos especies que habitan la península ibérica, la liebre ibérica (Lepus granatensis) de menor tamaño y la liebre europea (Lepus europaeus) de tamaño mayor. Presenta un pelaje de tonos amarillentos, con la parte ventral blanca que presenta una mayor extensión que en la liebre europea, pudiendo llegar a las extremidades anteriores, aunque con menos extensión que la liebre ibérica. De viso es notable el contraste entre el color del dorso y el blanco del vientre. Una de las características más interesantes para su identificación es la franja facial blanco grisácea que se extiende desde la garganta a la base de las orejas que sirve como base para la diferenciación taxonómica.</t>
+  </si>
+  <si>
+    <t>Conejo</t>
+  </si>
+  <si>
+    <t>Oryctolagus cuniculus</t>
+  </si>
+  <si>
+    <t>Oso pardo</t>
+  </si>
+  <si>
+    <t>Carnívoro de gran tamaño. Cabeza ancha, el hocico prolongado, siempre plantígrados. Color pardo, variando individualmente del isabela claro al sepia oscuro. El pelo es casi negro en la raíz, y amarillento tirando a ocre en la punta. Las patas son negras o de un pardo muy oscuro. Los individuos jóvenes ofrecen con frecuencia indicios de un collar blancuzco que a veces persiste, aunque muy desvanecido, hasta una edad avanzada.
+Masa corporal media en la Cordillera Cantábrica,  85,4 kg en hembras y 113,5 kg en machos.</t>
+  </si>
+  <si>
+    <t>Mapache</t>
+  </si>
+  <si>
+    <t>Procyon lotor</t>
+  </si>
+  <si>
+    <t>El mapache es un carnívoro de tamaño mediano. La cabeza es corta y ancha, el cuerpo rechoncho y las patas cortas. Las orejas están separadas y son redondeadas, los ojos son grandes y negros, y el hocico es corto y apuntado. El pelaje es largo y denso, de color gris, negruzco o rojizo, más claro en los flancos y las patas. Los rasgos distintivos del mapache son la cola anillada, entre 5 y 7 bandas oscuras, y la máscara facial negra a modo de antifaz. La inteligencia del mapache es similar a la de los perros y gatos domésticos y menor que la de los primates, tiene gran capacidad de aprendizaje y los órganos de los sentidos desarrollados. El mapache puede confundirse con la  jineta (Genetta genetta), por la cola anillada, y con el tejón (Meles meles), por la máscara facial y el aspecto general del cuerpo. La cola de la jineta es más larga,  entre 8 y 10 anillos, y el pelaje es moteado. La cola del tejón es corta, las patas son más robustas y las orejas y los ojos son pequeños. Además, la máscara facial es distinta: la del mapache se extiende alrededor de los ojos y las mejillas, la del tejón la forman dos bandas negras desde el hocico hasta las orejas.</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Similar a un perro pastor alemán, pero algo menor, con las orejas proporcionalmente más cortas, ojos oblicuos y de color ámbar en los adultos. Cuello, dorso y cola de color algo más oscuro; líneas negras longitudinales en las patas delanteras. El pelaje de invierno es mucho más denso que el de verano.</t>
+  </si>
+  <si>
+    <t>Canis lupus Linnaeus, 1758</t>
+  </si>
+  <si>
+    <t>Zorro</t>
+  </si>
+  <si>
+    <t>El zorro es un cánido de tamaño mediano y grácil, con el morro alargado y con una franja blanca en su labio superior, orejas relativamente grandes, siempre rectas y con la parte posterior oscura (negra). Los ojos son pequeños y la pupila es vertical. El color del pelaje puede variar entre el pardo-rojizo (el más habitual) hasta el gris. Las extremidades son finas y alargadas con respecto al cuerpo, y los pies pequeños. La cola es larga (70% de la longitud del cuerpo) y con pelo largo acabada en punta con un mechón blanco, uno de los rasgos determinantes que permiten identificar a esta especie.
+Masa corporal de adultos entre 3 y 14 kg.</t>
+  </si>
+  <si>
+    <t>Armiño</t>
+  </si>
+  <si>
+    <t>Mustela erminea Linnaeus, 1758</t>
+  </si>
+  <si>
+    <t>Carnívoro pequeño, que puede alcanzar una longitud de cabeza y cuerpo de 300 mm en machos y 260 mm en hembras, presenta un cuerpo cilíndrico y unas patas proporcionalmente pequeñas, pero fuertes. Cuello largo y cabeza plana y triangular. La cola mide el 30 – 45% de la longitud de cabeza y cuerpo.
+Se diferencia en general de M. nivalis por tener la punta de la cola negra, una longitud de la cola mayor del 25 – 33% de la longitud de cabeza y cuerpo y en las regiones donde coexisten, una talla mayor.
+En Europa Occidental, armiño y comadreja se diferencian además porque la separación entre el pelaje estival ventral (blanco o amarillento pálido) y dorsal (marrón), neta en ambas especies, es sinuosa en la comadreja, mientras que en el armiño es más o menos rectilínea. Además, el armiño carece de una mancha marrón yugular, rodeada por pelaje claro dominante.
+Pelaje estival de coloración marrón en la cabeza, cola y partes dorsales, y blanco níveo o amarillento en el vientre, pecho, garganta, labios, parte interior de las patas y reborde de las orejas. En los meses de invierno presenta un color blanco inmaculado sólo interrumpido por el negro de los ojos y el mechón de pelos negros en la mitad o tercio distal de la cola.
+Masa corporal máxima, 350 g en machos y 230 g en hembras</t>
+  </si>
+  <si>
+    <t>Comadreja</t>
+  </si>
+  <si>
+    <t>Mustela nivalis </t>
+  </si>
+  <si>
+    <t>Carnívoro de pequeño tamaño, con el cuerpo alargado, las orejas pequeñas, la cabeza estrecha, el cuello largo, las patas cortas y la cola corta. Su pelaje es de color marrón claro en la zona dorsal y blanco en la zona ventral. Estos dos colores se hallan separados por una línea recta o sinuosa, según las variedades. En España el pelaje se mantiene invariable todo el año. La comadreja es más pequeña que el armiño, la punta de cola no es negra y las orejas son más pequeñas, sin sobresalir de la cabeza, como ocurre en el armiño.
+Masa corporal, 92-263 g en machos y 65-90,5 g en hembras.</t>
+  </si>
+  <si>
+    <t>Pequeño mustélido de color marrón chocolate uniforme, con labios de color blanco. El visón americano (Mustela vison) es algo mayor y sin blanco en el labio superior. El turón (Mustela putorius) tiene un antifaz negro en la cara y una estrecha mancha blanca en el borde de las orejas.
+Masa corporal media, 894g en machos y 515 g en hembras.</t>
+  </si>
+  <si>
+    <t>Visón americano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequeño mustélido, adaptado a la vida semiacuática de cuerpo alargado, y delgado, patas cortas  y robustas, cuello ancho y cráneo deprimido. El patrón de coloración es negro o marrón oscuro, aunque puede presentar color gris, matices de marrón, azul, crema, blanco, gris y arena. Suelen tener un cierto número de manchas blancas en la zona ventral, particularmente en la barbilla y labio inferior, y a veces en las zonas abdominal e inguinal. El visón europeo (Mustela lutreola) es de menor tamaño, y presenta mancha blanca en el labio superior. El turón (Mustela putorius) tiene un antifaz negro en la cara y la punta de los orejas de color blanco, además de tener un color grisáceo el pelaje, con tonalidades amarillentas en los flancos. La identificación de la especie a partir de rastros e indicios como huellas y excrementos es muy difícil. Allí donde conviven las tres especies indicadas o dos de ellas, es imposible indicar a qué especie pertenecen los indicios encontrados. En cambio, se pueden distinguir genéticamente (pelos y excrementos) y por la estructura microscópica de los pelos.
+Masa corporal media,  1.227 g en machos adultos y 679 g en hembras adultas. </t>
+  </si>
+  <si>
+    <t>Turón</t>
+  </si>
+  <si>
+    <t>Mustela putorius Linnaeus, 1758</t>
+  </si>
+  <si>
+    <t>Carnívoro de pequeño tamaño que posee el cuerpo alargado, extremidades cortas y cola larga y espesa. La coloración es oscura, variando del marrón intenso al negro, aunque amarillea en los flancos y la zona ventral. Muestra un gran parecido con los visones europeo (Mustela lutreola) y americano (Neovison vison). Se diferencia de ellos gracias al antifaz blanco que luce en torno al hocico y los ojos, así como al reborde blanco de sus orejas.
+Masa corporal media, 1.246 g en machos y 780 g en hembras.</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Mustélido de cuerpo alargado, cola larga y muy poblada y patas y orejas cortas. El pelaje es de color pardo oscuro, con una mancha bajo el cuello de color amarillo-anaranjada llamada "babero". La marta es muy similar a otro mustélido que es la garduña, con la que frecuentemente se confunde, aunque el babero en ésta es blanco.
+Masa corporal, 1,1-2,5 kg.</t>
+  </si>
+  <si>
+    <t>Garduña</t>
+  </si>
+  <si>
+    <t>Carnívoro de tamaño medio, de cabeza estrecha, morro afilado, cara en forma de cuña, ojos relativamente grandes y orejas redondeadas. El cuerpo es moderadamente alargado con una cola larga y peluda que usa como un balancín para guardar el equilibrio cuando se mueve o salta entre árboles. Las extremidades son cortas, las plantas de los pies y manos son grandes con pelos.
+El color del cuerpo es pardo o chocolate, siendo más claro en la cabeza y más oscuro en las patas y la cola, y dejando entrever la borra grisácea. Este pelaje es más claro en la parte ventral con un característico gran parche blanco en la garganta (babero) extendiéndose hasta sus patas y un poco por el vientre. Se diferencia de la marta por el color del babero, siendo de color ocre o anaranjado en la marta y casi siempre ocupando una pequeña porción de la mandíbula inferior.
+Masa corporal media, 1.353 g en machos y 1.057 g en hembras.</t>
+  </si>
+  <si>
+    <t>Nutria </t>
+  </si>
+  <si>
+    <t>Cuerpo alargado y extremidades proporcionalmente cortas y robustas. Orejas muy chicas, casi ocultas bajo el pelo. La cola es ancha y aplanada en la base, y algo puntiaguda en su extremo. Pies con las plantas desnudas. Posee cinco dedos unidos por una membrana interdigital bien desarrollada en manos y pies. El color del pelaje es pardo o canela, pasando a gris sucio en las partes inferiores, más pálido, casi blanco, en la garganta.
+Masa corporal, 6,1-9,4 kg en machos y 4,4-6,5 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Tejón </t>
+  </si>
+  <si>
+    <t>Meles meles (Linnaeus, 1758)</t>
+  </si>
+  <si>
+    <t>Cuerpo robusto con la cabeza pequeña y el cuello muy corto. Presenta un cuerpo alargado (59 - 87 cm) y con cola muy corta (11,4 - 20 cm) con patas fuertes y acabadas en largas y poderosos uñas que le sirven para excavar. Color del cuerpo grisáceo en la parte dorsal y más oscuro en su parte ventral con un diseño facial característico consistente en un fondo blanco surcado por dos bandas negras que cubren la zona de los ojos.
+Masa corporal, 4,8-9,8 kg.</t>
+  </si>
+  <si>
+    <t>Meloncillo</t>
+  </si>
+  <si>
+    <t>Herpestes ichneumon (Linnaeus, 1758)</t>
+  </si>
+  <si>
+    <t>Cuerpo alargado de 46-54 cm con coloración en mezclilla oscura y uniforme y los pelos caracterizados por estar anillados alternativamente de crema claro y pardo-castaño muy oscuro. Cola también larga (36-45 cm), ancha en la base y estrecha en la punta, terminada en un mechón negro. Patas proporcionalmente cortas, con manos y pies de cinco dedos, plantas desnudas y uñas no retráctiles. La cabeza es puntiaguda con el hocico terminado en un rinario desnudo oscuro. Los ojos son pequeños con pupilas ovales alargadas horizontalmente, y las orejas redondeadas, anchas y cortas.
+Masa corporal media, 2,4 kg en machos y 2,1 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Jineta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnívoro mediano de patas cortas, hocico puntiagudo, orejas prominentes y cola larga y gruesa. El cuerpo es alargado, con un pelaje pardo grisáceo, con muchas manchas oscuras que tienden a formar líneas longitudinales. La cola presenta de ocho a diez anillos negros y la punta es blanquecina. Delante de los ojos tiene una amplia mancha oscura a cada lado.
+Longitud de la cabeza y el cuerpo: 43,2-55,2 cm; longitud de la cola: 36,5-48,5 cm.
+Masa corporal, 1,75-2,25 kg en machos y 1,60-2,10 kg en hembras.
+ </t>
+  </si>
+  <si>
+    <t>Lince ibérico</t>
+  </si>
+  <si>
+    <t>Felino esbelto con patas relativamente largas en relación con la longitud (82-103 cm) y la altura del cuerpo (36-55 cm). Pelaje leonado con manchas oscuras de tamaño, forma y densidad muy variables entre individuos. Cabeza pequeña flanqueada por largos mechones de pelo blanco y negro (barbas). Orejas terminadas en pinceles negros. Cola corta (14 cm) también con una conspicua mancha negra distal. Rostro breve, ojos grandes amarillo-verdosos con líneas disruptoras de su contorno y pupilas oscuras. Pies con cuatro dedos y garras retráctiles.
+Masa corporal media, 12,8 kg en machos y 9,3 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Gato montés</t>
+  </si>
+  <si>
+    <t>El gato montés tiene la apariencia de un gato doméstico atigrado de tamaño grande, de unos 540 mm de longitud corporal. Es un gato robusto, con patas relativamente cortas y una cabeza voluminosa. Destacan en ella los bigotes densos de apariencia caída, el rostro relativamente plano y el hocico de color carne. El pelaje es en general pardo-grisáceo, con diversas rayas negras distribuídas por cabeza, cuello y extremidades. Una conspicua línea dorsal negra recorre la columna vertebral desde la zona cervical hasta la lumbar, acabando bruscamente antes del comienzo de la cola. Esta última es larga y ancha, de unos 300 mm de longitud, acaba en una borla redonda y negra, pudiendo presentar de tres a cinco anillos negros.
+Masa corporal media, 4,6 kg en machos y 3,7 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Foca monje</t>
+  </si>
+  <si>
+    <t>Longitud total hasta 270 cm. La cabeza es ancha y de forma redondeada. Aletas anteriores cortas, con uña en los cinco dedos. Las aletas posteriores no pueden ser rotadas anteriormente. La cola es corta y ancha. La coloración varía con la edad y el sexo. Los recién nacidos son de color negro con una mancha ventral blanca o amarillenta. Con la edad la coloración se vuelve gris plateada en el dorso y blanquecina en el vientre. Los machos adultos tienen la coloración negruzca excepto la garganta que es blanquecina y hay una mancha blanca en el vientre.
+Masa corporal hasta 360 kg.</t>
+  </si>
+  <si>
+    <t>Jabalí</t>
+  </si>
+  <si>
+    <t>Mamífero de mediano tamaño con cuerpo rechoncho, sin apenas presencia de un cuello que una su cabeza fusiforme con un tronco en el que destaca el mayor desarrollo del tren superior. Los machos son un 5-10% mayor que las hembras y tienen el cráneo más largo. En los machos resulta evidente el tamaño que adquieren los caninos.
+Los machos adultos que habitan en la península Ibérica tienen una masa corporal media que varía entre 75 y 85 kg y las hembras entre 55 y 65 kg.</t>
+  </si>
+  <si>
+    <t>Cabra montés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El color de las hembras es entre canela y ocre, más oscuro en invierno que en verano. Los machos presentan además unas manchas de color negro en los flancos laterales y en el cuello, que aumentan con la edad, pero que desaparecen durante el verano. Los cuernos presentan un crecimiento anual y pueden llegar a medir 80-100 cm en los machos y 30 cm en hembras.
+Masa corporal, hasta 120 kg en machos y 46 kg en hembras.
+ </t>
+  </si>
+  <si>
+    <t>Rebeco</t>
+  </si>
+  <si>
+    <t>Rupicapra pyrenaica Bonaparte, 1845</t>
+  </si>
+  <si>
+    <t>Bóvido de pequeño tamaño, menor y más esbelto que la cabra montés. Ambos sexos poseen cuernos en forma de gancho, siendo los de los machos más gruesos y con el gancho apical más cerrado. Cabeza y garganta claras, con una mancha oscura que cubre el ojo a modo de antifaz. Color del cuerpo marrón oscuro en el dorso, pecho, patas y flancos, más claro en los cuartos traseros y hombros. Pelaje más contrastado en invierno. 
+Masa corporal media, 30 kg en machos y 24 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Arrui </t>
+  </si>
+  <si>
+    <t>El aspecto general es el de una cabra robusta de faz alargada y piernas relativamente cortas y macizas, destacando asimismo una cola relativamente larga. Predomina un tono pálido leonado que varía entre distintas zonas. La característica más notable es su larga melena que se extiende desde la garganta hasta el pecho, a partir del cual se bifurca y continúa por las patas delanteras. La dirección de crecimiento de los cuernos conforma una circunferencia hacia arriba y atrás, y en machos maduros la parte distal va convergiendo por encima de la nuca.
+Masa corporal, 50-132 kg en machos y 12-68 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Ciervo</t>
+  </si>
+  <si>
+    <t>El ciervo ibérico posee un pelaje donde predomina el color marrón uniforme, con la zona ventral de tono más claro, y un escudo anal también de tono más claro hasta casi blanco, flanqueado por bandas oscuras, con la cola corta de color marrón claro. Los cervatillos tienen un pelaje característico con fondo marrón y manchas o "pintas" blancas que mantienen durante aproximadamente los tres primeros meses de vida. Los machos desarrollan a partir del primer año cuernas de origen óseo, que renuevan todos los años. Las hembras carecen de cuernas. Existe dimorfismo sexual en tamaño. Los machos, a partir de dos años de edad, tienen una longitud total cabeza-cola entre 160 y 220 cm. Las hembras a partir de dos años miden de la cabeza a la cola entre 160 y 195 cm.
+Masa corporal a partir de dos años de edad, 80-160 kg en machos y 50-100 kg. en hembras</t>
+  </si>
+  <si>
+    <t>Gamo</t>
+  </si>
+  <si>
+    <t>Cérvido con elevado dimorfismo sexual. Sólo los machos presentan astas, que echadas hacia atrás e implantadas sobre pedúnculos muy cortos, presentan tres candiles y una ancha palma, característica de la especie. La cornamenta sufre mudas anuales, cayendo normalmente a finales de invierno para volver a crecer en primavera. La longitud de cabeza y cuerpo varía entre 129-155 cm en machos y entre 118-140 cm en hembras. Dos pelajes, uno en invierno y otro en verano. En verano posee un fondo cervuno algo rojizo, moteado de manchas blancas. En ambos flancos y cerca del vientre las manchas tienden a formar una banda longitudinal blanca. En invierno la coloración se torna más oscura y las manchas blancas desaparecen.
+Masa corporal,  52-63 kg en machos y 28-41 kg en hembras.</t>
+  </si>
+  <si>
+    <t>Corzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungulado de pequeño tamaño, de tamaño similar al de una oveja y con coloración uniforme grisácea o marrón clara. Carece de cola. Los machos tienen una cuerna poco ramificada que mudan en la época invernal; se compone esta de un asta central con una punta inferior proyectada hacia adelante y una dirigida hacia la parte trasera del individuo, más alta que la primera. Al tener las cuartos traseros más levantados que los delanteros y andar con pequeños saltos, le confieren además un aspecto grácil.
+La masa corporal media varía entre poblaciones 20-25,5 kg en machos y 17-25 kg en hembras.
+ </t>
+  </si>
+  <si>
+    <t>Ballena de los vascos</t>
+  </si>
+  <si>
+    <t>Sin aleta dorsal y sin pliegues en la garganta. Aletas cortas y anchas. La cabeza es muy grande y representa un tercio de la longitud total. Mandíbula fuertemente recurvada, con el extremo anterior dirigido hacia abajo. Con engrosamientos o callosidades de color claro en la cabeza que varían en tamaño, grosor y posición, lo que permite su identificación individual. Coloración negra en los adultos con mancha ventral blanca en algunos ejemplares. Longitud total máxima, 18 m.
+Masa corporal media, 29,6 toneladas.</t>
+  </si>
+  <si>
+    <t>Ballenato hocicudo de Blainville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetáceo de hasta 4,73 m de longitud. Cabeza relativamente pequeña, con frente aplanada, extenso tórax y abdomen, y una aleta caudal corta. Presenta dos hendiduras en la garganta, entre las dos hemimandíbulas inferiores. Presentan una pequeña y aguda aleta dorsal localizada al inicio del último tercio del cuerpo. La aleta caudal es estrecha y de extremos agudos y las aletas pectorales son de muy reducido tamaño.
+La mandíbula inferior cuenta con un arqueamiento en la parte central, menos aparente en el caso de las hembras, pero muy prominente en los machos. Éstos últimos desarrollan dos grandes dientes (uno en cada hemimandíbula) de forma triangular en la parte apical de dicho arqueamiento mandibular. En M. densirostris, los dientes se desarrollan por detrás de la sínfisis mandibular y están inclinados anteriormente.
+Las hembras y ejemplares juveniles muestran una coloración grisácea en la parte dorsal y blanca en la ventral, mientras que los machos, en cambio, presentan una pigmentación gris oscura en todo el cuerpo.
+Masa corporal máxima, 1.033 kg. </t>
+  </si>
+  <si>
+    <t>Ballenato de Cuvier</t>
+  </si>
+  <si>
+    <t>Cetáceo de tamaño medio que puede alcanzar los siete m de longitud. Presentan dos surcos en la cabeza en posición ventral que convergen anteriormente sin llegar a unirse. Presenta una aleta dorsal falcada muy retrasada ubicada aproximadamente en los 2/3 de la longitud total, en la región lumbar, sus aletas pectorales son pequeñas y encajan en pequeñas depresiones laterales. Posee una pequeña concavidad en la parte superior de la cabeza. Su aleta caudal es ancha y no presenta ninguna muesca de separación entre los dos lóbulos.
+La mandíbula inferior se extiende por delante de la superior y el perfil de la boca está curvado hacia arriba. Ambos sexos presentan dos dientes en el extremo apical, uno en cada hemimandíbula que asoman externamente en los machos, que miden hasta 60 mm de longitud.
+Machos de color gris oscuro, hembras de coloración gris o marrón, aclarándose hacia la posición ventral. Los juveniles suelen presentar una coloración muy oscura. Con la edad, la cabeza se vuelve más clara, casi blanca, especialmente en los machos.</t>
+  </si>
+  <si>
+    <t>Calderón gris</t>
+  </si>
+  <si>
+    <t>Cetáceo de cuerpo robusto y macizo en su parte anterior, con la cabeza roma. Presenta un melón pronunciado, aunque no supera la vertical de la parte anterior de la boca, con un marcado surco frontal centrado y vertical. Las aletas pectorales son largas y apuntadas, la aleta dorsal alta y el pedúnculo caudal es estrecho.
+Los ejemplares recién nacidos y juveniles presentan color gris oscuro en el lomo, con color claro y canela en la cabeza, anterior al aventador. Los ejemplares de 230 a 250 cm presentan un color marrón oscuro achocolatado, casi negro, en los que destacan la mancha blanca del pecho y la mancha genital. Los ejemplares de 290 a 300 cm son grises con marcas blancas de cicatrices, manteniendo un gris uniforme algo más oscuro en el lomo y en las aletas. En ejemplares de más de 300 cm el color es blanquecino en la parte anterior del cuerpo y marcado de cicatrices, con tendencia a aclarar la cabeza totalmente, y manteniendo las aletas oscuras. La longitud máxima registrada para esta especie es de 400 cm.</t>
+  </si>
+  <si>
+    <t>Orca</t>
+  </si>
+  <si>
+    <t>Es el delfínido de mayor tamaño, llegando a alcanzar los 9,0 m los machos y los 7,7 m las hembras. Los machos poseen aletas de mayor envergadura que las hembras, tanto las pectorales como la caudal y la dorsal, la cual, erguida, puede llegar a alcanzar los 1,8 m de longitud y es, el rasgo más determinante para diferenciar ambos sexos.
+Otra de las características más distintivas de la orca es su coloración parcheada. En general, la parte dorsal es negro azabache. Sobre los ojos presentan un parche ovalado de color blanco. Detrás de la aguda aleta dorsal, aparece un dibujo en forma de silla de montar de color gris blanquecino. El mentón y la garganta son de color blanco. A partir de ellos surge una amplia franja blanca que se extiende por el vientre y se ramifica en forma de tridente en la parte posterior del cuerpo. Las aletas pectorales son completamente negras y la caudal es también negra en el dorso y blanca en el reverso. En la parte inferior de los flancos emerge un entrante blanco resultado de la expansión del tridente ventral. En las crías, las áreas normalmente blancas se muestran en un tono anaranjado.
+Su masa corporal oscila entre los 3.500 kg. y los 6.000 kg.</t>
+  </si>
+  <si>
+    <t>Marsopa </t>
+  </si>
+  <si>
+    <t>Cetáceo pequeño de cuerpo rechoncho y cabeza roma. Las aletas pectorales tienen el extremo redondeado y la aleta dorsal se sitúa en la mitad del cuerpo, es baja y triangular. 
+Dorso y costados de color negro castaño, en la parte anterior de los flancos ceniza que se difumina a blanco centralmente. Aletas pectorales negras con una línea que las une con la parte inferior de la boca, que es también oscura rodeando el labio inferior. La parte anterior de la cabeza es un poco más clara, haciendo una figura triangular que se abre hacia delante desde el aventador. La longitud total varía entre 130-202 cm.
+Masa corporal máxima, 90 kg.</t>
+  </si>
+  <si>
+    <t>El conejo europeo es un mamífero de que pertenece a la familia Leporidae, dentro del orden de los Lagomorfos. Los conejos se caracterizan por su pelaje pardo-grisáceo y un rabo corto cuya parte interna es de color blanco, sin una mancha negra tan claramente definida como en las liebres. Los conejos tienen potentes extremidades posteriores adaptadas para la carrera, y grandes orejas, aunque menores que las de las liebres.</t>
+  </si>
+  <si>
+    <r>
+      <t>Talpa europaea</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eptesicus isabellinus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chionomys nivalis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Arvicola sapidus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mus spretus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lataste</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lepus castroviejoi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ursus arctos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visón europeo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lutra lutra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Linnaeus, 1758)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Genetta genetta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Linnaeus, 1758)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lynx pardinus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Temminck, 1827)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Felis silvestris</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Schreber, 1777</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phocoena phocoena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Linnaeus, 1758)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Orcinus orca</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Linnaeus, 1758)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Grampus griseus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Cuvier, 1812)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ziphius cavirostris</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Cuvier, 1823)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mesoplodon densirostris</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Blainville, 1817)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eubalaena glacialis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Müller, 1776)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Capreolus capreolus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Linnaeus, 1758</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dama dama</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Linnaeus, 1758)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cervus elaphus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Linnaeus, 1758</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ammotragus lervia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pallas, 1777)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Capra pyrenaica</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schinz, 1838</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sus scrofa</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Linnaeus, 1758</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monachus monachus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Hermann, 1779)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vulpes vulpes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Linnaeus, 1758</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mustela lutreola</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Linnaeus, 1761)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Neovison vison</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schreber, 1777)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Martes martes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Linnaeus, 1758)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Martes foina</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Erxleben, 1777)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,22 +1128,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFC0C0C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFC0C0C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -158,10 +1183,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -447,22 +1472,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="18.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="132.6328125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -476,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -484,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -497,7 +1522,9 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
@@ -509,7 +1536,9 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
@@ -519,24 +1548,804 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="92" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="46" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="92" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="115" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="92" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="115" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="161" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="46" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="46" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="46" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="69" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="138" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="115" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="92" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="115" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
